--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5640" windowWidth="23460" windowHeight="10245" tabRatio="377"/>
+    <workbookView xWindow="6440" yWindow="5640" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,12 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -888,21 +893,21 @@
   <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="28">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
@@ -940,7 +945,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" s="24" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -978,62 +983,67 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="G7" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1042,22 +1052,22 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1083,7 +1093,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1122,7 +1132,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1161,7 +1171,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1200,7 +1210,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1239,7 +1249,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1260,7 +1270,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>20</v>
       </c>
       <c r="H7" s="16">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>19</v>
@@ -1294,7 +1304,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1328,7 +1338,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1362,7 +1372,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1406,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1412,7 +1422,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1442,7 +1452,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1460,7 +1470,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1490,7 +1500,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1506,7 +1516,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +1546,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1552,7 +1562,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1582,7 +1592,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1598,13 +1608,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="5640" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
+    <workbookView xWindow="6435" yWindow="5640" windowWidth="23460" windowHeight="10245" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -30,7 +35,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
   <si>
     <t>Ref Des</t>
   </si>
@@ -193,12 +198,15 @@
   <si>
     <t> 70° 43.677' W</t>
   </si>
+  <si>
+    <t>CC_bsipar_par_scaling</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -310,6 +318,12 @@
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF484848"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -417,7 +431,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,6 +504,7 @@
     <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -598,6 +613,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -890,24 +908,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="23.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="7" width="17.6640625" customWidth="1"/>
-    <col min="8" max="9" width="19.83203125" customWidth="1"/>
-    <col min="10" max="11" width="9.6640625" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" customWidth="1"/>
+    <col min="5" max="7" width="17.7109375" customWidth="1"/>
+    <col min="8" max="9" width="19.85546875" customWidth="1"/>
+    <col min="10" max="11" width="9.7109375" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="28">
+    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
@@ -945,7 +963,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="24" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -982,57 +1000,63 @@
       <c r="L2" s="25" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="24">
+        <v>39.966666670000002</v>
+      </c>
+      <c r="N2" s="24">
+        <v>-70.533333330000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="G7" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15">
+    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:12" ht="15">
+    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1052,22 +1076,22 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5" customWidth="1"/>
-    <col min="2" max="2" width="12.5" customWidth="1"/>
+    <col min="1" max="1" width="30.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5" customWidth="1"/>
-    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28">
+    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1093,7 +1117,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1132,7 +1156,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1171,7 +1195,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1210,7 +1234,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1249,7 +1273,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1270,7 +1294,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1304,7 +1328,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1338,7 +1362,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1372,7 +1396,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1406,7 +1430,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1422,7 +1446,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1452,7 +1476,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1470,7 +1494,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1500,7 +1524,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1516,7 +1540,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -1535,8 +1559,12 @@
       <c r="F16" s="19">
         <v>50156</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
+      <c r="G16" s="30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H16" s="8">
+        <v>1</v>
+      </c>
       <c r="I16" s="7" t="s">
         <v>25</v>
       </c>
@@ -1546,7 +1574,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1562,7 +1590,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1592,7 +1620,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1608,13 +1636,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AST1799\Documents\OOI\OOI Douments\CI\asset-management\deployment\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6435" yWindow="5640" windowWidth="23460" windowHeight="10245" tabRatio="377"/>
+    <workbookView xWindow="6440" yWindow="5640" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -35,7 +30,7 @@
     <definedName name="_FilterDatabase_1_1_1">Moorings!$B$1:$K$99</definedName>
     <definedName name="_FilterDatabase_2">Asset_Cal_Info!$A$1:$H$386</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
   <si>
     <t>Ref Des</t>
   </si>
@@ -431,7 +426,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -505,6 +500,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -910,22 +908,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="7" width="17.7109375" customWidth="1"/>
-    <col min="8" max="9" width="19.85546875" customWidth="1"/>
-    <col min="10" max="11" width="9.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
+    <col min="5" max="7" width="17.6640625" customWidth="1"/>
+    <col min="8" max="9" width="19.83203125" customWidth="1"/>
+    <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
@@ -963,7 +961,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="15">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -1007,56 +1005,56 @@
         <v>-70.533333330000005</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="G7" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="15">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="15">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="8:9">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:9">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:9">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="8:9">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:9">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
@@ -1075,23 +1073,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="30.42578125" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" customWidth="1"/>
+    <col min="1" max="1" width="30.5" customWidth="1"/>
+    <col min="2" max="2" width="12.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.42578125" customWidth="1"/>
-    <col min="8" max="8" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="17.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5" customWidth="1"/>
+    <col min="8" max="8" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1117,7 +1115,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1156,7 +1154,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1195,7 +1193,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1234,7 +1232,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1273,7 +1271,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1294,7 +1292,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" s="2" customFormat="1">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1328,7 +1326,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" s="2" customFormat="1">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1362,7 +1360,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" s="2" customFormat="1">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1396,7 +1394,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" s="2" customFormat="1">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1430,7 +1428,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" s="2" customFormat="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1446,7 +1444,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" s="2" customFormat="1">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1476,7 +1474,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:19" s="2" customFormat="1">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1494,7 +1492,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" s="2" customFormat="1">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1524,7 +1522,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" s="2" customFormat="1">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1540,7 +1538,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" s="2" customFormat="1">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -1562,19 +1560,17 @@
       <c r="G16" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="8">
-        <v>1</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>25</v>
-      </c>
+      <c r="H16" s="31">
+        <v>9.9999999999999995E-7</v>
+      </c>
+      <c r="I16" s="7"/>
       <c r="J16" s="7"/>
       <c r="K16" s="7"/>
       <c r="L16" s="7"/>
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" s="2" customFormat="1">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1590,7 +1586,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" s="2" customFormat="1">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1616,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" s="2" customFormat="1">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1636,13 +1632,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>

--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27309"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leila/Documents/OOI_assmgt/asset-management/deployment/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6440" yWindow="5640" windowWidth="23460" windowHeight="10240" tabRatio="377" activeTab="1"/>
+    <workbookView xWindow="540" yWindow="3260" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -32,6 +37,9 @@
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -40,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
   <si>
     <t>Ref Des</t>
   </si>
@@ -201,7 +209,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -320,6 +328,11 @@
       <color rgb="FF484848"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="4">
@@ -426,7 +439,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -503,6 +516,7 @@
     <xf numFmtId="11" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="32">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
@@ -908,11 +922,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="23.33203125" customWidth="1"/>
@@ -923,7 +937,7 @@
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28">
+    <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
         <v>34</v>
       </c>
@@ -961,7 +975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="24" customFormat="1" ht="15">
+    <row r="2" spans="1:14" s="24" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -980,8 +994,8 @@
       <c r="F2" s="5">
         <v>0.86805555555555547</v>
       </c>
-      <c r="G2" s="29" t="s">
-        <v>44</v>
+      <c r="G2" s="32">
+        <v>42591</v>
       </c>
       <c r="H2" s="22" t="s">
         <v>45</v>
@@ -1005,67 +1019,62 @@
         <v>-70.533333330000005</v>
       </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G7" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="15">
+    <row r="12" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
     </row>
-    <row r="13" spans="1:14" ht="15">
+    <row r="13" spans="1:14" ht="16" x14ac:dyDescent="0.2">
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
     </row>
-    <row r="17" spans="8:9">
+    <row r="17" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
     </row>
-    <row r="18" spans="8:9">
+    <row r="18" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
     </row>
-    <row r="19" spans="8:9">
+    <row r="19" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
     </row>
-    <row r="20" spans="8:9">
+    <row r="20" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
     </row>
-    <row r="21" spans="8:9">
+    <row r="21" spans="8:9" x14ac:dyDescent="0.2">
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -1073,11 +1082,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.5" customWidth="1"/>
     <col min="2" max="2" width="12.5" customWidth="1"/>
@@ -1089,7 +1098,7 @@
     <col min="9" max="9" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="28">
+    <row r="1" spans="1:19" ht="28" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -1115,7 +1124,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>28</v>
       </c>
@@ -1154,7 +1163,7 @@
       <c r="R2" s="12"/>
       <c r="S2" s="12"/>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>28</v>
       </c>
@@ -1193,7 +1202,7 @@
       <c r="R3" s="12"/>
       <c r="S3" s="12"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>28</v>
       </c>
@@ -1232,7 +1241,7 @@
       <c r="R4" s="12"/>
       <c r="S4" s="12"/>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>28</v>
       </c>
@@ -1271,7 +1280,7 @@
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="9"/>
@@ -1292,7 +1301,7 @@
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
     </row>
-    <row r="7" spans="1:19" s="2" customFormat="1">
+    <row r="7" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>29</v>
       </c>
@@ -1326,7 +1335,7 @@
       <c r="M7" s="7"/>
       <c r="N7" s="7"/>
     </row>
-    <row r="8" spans="1:19" s="2" customFormat="1">
+    <row r="8" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>29</v>
       </c>
@@ -1360,7 +1369,7 @@
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
     </row>
-    <row r="9" spans="1:19" s="2" customFormat="1">
+    <row r="9" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
@@ -1394,7 +1403,7 @@
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
     </row>
-    <row r="10" spans="1:19" s="2" customFormat="1">
+    <row r="10" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>
@@ -1428,7 +1437,7 @@
       <c r="M10" s="7"/>
       <c r="N10" s="7"/>
     </row>
-    <row r="11" spans="1:19" s="2" customFormat="1">
+    <row r="11" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="9"/>
@@ -1444,7 +1453,7 @@
       <c r="M11" s="7"/>
       <c r="N11" s="7"/>
     </row>
-    <row r="12" spans="1:19" s="2" customFormat="1">
+    <row r="12" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>30</v>
       </c>
@@ -1474,7 +1483,7 @@
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
     </row>
-    <row r="13" spans="1:19" s="2" customFormat="1">
+    <row r="13" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="9"/>
@@ -1492,7 +1501,7 @@
       <c r="M13" s="7"/>
       <c r="N13" s="7"/>
     </row>
-    <row r="14" spans="1:19" s="2" customFormat="1">
+    <row r="14" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>31</v>
       </c>
@@ -1522,7 +1531,7 @@
       <c r="M14" s="7"/>
       <c r="N14" s="7"/>
     </row>
-    <row r="15" spans="1:19" s="2" customFormat="1">
+    <row r="15" spans="1:19" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="9"/>
@@ -1538,7 +1547,7 @@
       <c r="M15" s="7"/>
       <c r="N15" s="7"/>
     </row>
-    <row r="16" spans="1:19" s="2" customFormat="1">
+    <row r="16" spans="1:19" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>32</v>
       </c>
@@ -1570,7 +1579,7 @@
       <c r="M16" s="7"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="1:14" s="2" customFormat="1">
+    <row r="17" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="9"/>
@@ -1586,7 +1595,7 @@
       <c r="M17" s="7"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="1:14" s="2" customFormat="1">
+    <row r="18" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>33</v>
       </c>
@@ -1616,7 +1625,7 @@
       <c r="M18" s="7"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="1:14" s="2" customFormat="1">
+    <row r="19" spans="1:14" s="2" customFormat="1" ht="14" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="7"/>
       <c r="C19" s="9"/>
@@ -1632,13 +1641,13 @@
       <c r="M19" s="7"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="1:14">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C20" s="20"/>
       <c r="D20" s="20"/>
       <c r="E20" s="20"/>
       <c r="F20" s="20"/>
     </row>
-    <row r="21" spans="1:14">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C21" s="20"/>
       <c r="D21" s="20"/>
       <c r="E21" s="20"/>
@@ -1647,10 +1656,5 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
+++ b/deployment/Omaha_Cal_Info_CP05MOAS-GL376_00005.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="540" yWindow="3260" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
+    <workbookView xWindow="50700" yWindow="-2640" windowWidth="23460" windowHeight="10240" tabRatio="377"/>
   </bookViews>
   <sheets>
     <sheet name="Moorings" sheetId="1" r:id="rId1"/>
@@ -196,13 +196,13 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>39° 49.836 N</t>
-  </si>
-  <si>
-    <t> 70° 43.677' W</t>
-  </si>
-  <si>
     <t>CC_bsipar_par_scaling</t>
+  </si>
+  <si>
+    <t>39° 49.836' N</t>
+  </si>
+  <si>
+    <t>70° 43.677' W</t>
   </si>
 </sst>
 </file>
@@ -405,7 +405,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="32">
+  <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
@@ -438,8 +438,20 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -517,8 +529,11 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="32">
+  <cellStyles count="44">
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
@@ -533,6 +548,12 @@
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="33" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="43" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
@@ -547,6 +568,12 @@
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="32" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="34" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="36" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="38" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="40" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 15" xfId="1"/>
     <cellStyle name="Normal 2" xfId="2"/>
@@ -922,8 +949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -935,6 +962,7 @@
     <col min="8" max="9" width="19.83203125" customWidth="1"/>
     <col min="10" max="11" width="9.6640625" customWidth="1"/>
     <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="14" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="28" x14ac:dyDescent="0.2">
@@ -998,10 +1026,10 @@
         <v>42591</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I2" s="23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J2" s="17">
         <v>1000</v>
@@ -1013,10 +1041,12 @@
         <v>27</v>
       </c>
       <c r="M2" s="24">
-        <v>39.966666670000002</v>
+        <f>((LEFT(H2,(FIND("°",H2,1)-1)))+(MID(H2,(FIND("°",H2,1)+1),(FIND("'",H2,1))-(FIND("°",H2,1)+1))/60))*(IF(RIGHT(H2,1)="N",1,-1))</f>
+        <v>39.830599999999997</v>
       </c>
       <c r="N2" s="24">
-        <v>-70.533333330000005</v>
+        <f>((LEFT(I2,(FIND("°",I2,1)-1)))+(MID(I2,(FIND("°",I2,1)+1),(FIND("'",I2,1))-(FIND("°",I2,1)+1))/60))*(IF(RIGHT(I2,1)="E",1,-1))</f>
+        <v>-70.727950000000007</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -1026,6 +1056,9 @@
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
+    </row>
+    <row r="6" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="I6" s="33"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G7" s="28" t="s">
@@ -1567,7 +1600,7 @@
         <v>50156</v>
       </c>
       <c r="G16" s="30" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H16" s="31">
         <v>9.9999999999999995E-7</v>
